--- a/Execucoes Gerais/novo_final_comparativo_todos5AA.xlsx
+++ b/Execucoes Gerais/novo_final_comparativo_todos5AA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22770" windowHeight="12540" activeTab="5"/>
+    <workbookView windowWidth="27795" windowHeight="12540" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="GRI" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="26">
   <si>
     <t>NFE</t>
+  </si>
+  <si>
+    <t>AGEO2real1_AA</t>
+  </si>
+  <si>
+    <t>AGEO2real2_AA0</t>
+  </si>
+  <si>
+    <t>AGEO2real2_AA1</t>
+  </si>
+  <si>
+    <t>AGEO2real2_AA2</t>
+  </si>
+  <si>
+    <t>AGEO2real2_AA3</t>
+  </si>
+  <si>
+    <t>============================================================================</t>
+  </si>
+  <si>
+    <t>Função: griewangk</t>
+  </si>
+  <si>
+    <t>parameter</t>
   </si>
   <si>
     <t>AGEO2real1_P_AA</t>
@@ -37,15 +61,6 @@
   </si>
   <si>
     <t>AGEO2real2_P_AA_p3</t>
-  </si>
-  <si>
-    <t>============================================================================</t>
-  </si>
-  <si>
-    <t>Função: griewangk</t>
-  </si>
-  <si>
-    <t>parameter</t>
   </si>
   <si>
     <t>meanNFE</t>
@@ -89,10 +104,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -103,8 +118,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,7 +135,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,6 +165,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -148,16 +180,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,23 +197,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,6 +214,21 @@
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -216,24 +247,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,13 +271,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,7 +295,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,13 +307,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,49 +397,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,73 +445,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,6 +489,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -485,15 +509,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,26 +528,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -547,123 +542,143 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -672,28 +687,28 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -855,7 +870,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real1_P_AA</c:v>
+                  <c:v>AGEO2real1_AA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1150,7 +1165,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_P_AA_p0</c:v>
+                  <c:v>AGEO2real2_AA0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1451,7 +1466,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_P_AA_p1</c:v>
+                  <c:v>AGEO2real2_AA1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1752,7 +1767,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_P_AA_p2</c:v>
+                  <c:v>AGEO2real2_AA2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2047,7 +2062,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_P_AA_p3</c:v>
+                  <c:v>AGEO2real2_AA3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2676,7 +2691,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real1_P_AA</c:v>
+                  <c:v>AGEO2real1_AA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2971,7 +2986,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_P_AA_p0</c:v>
+                  <c:v>AGEO2real2_AA0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3272,7 +3287,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_P_AA_p1</c:v>
+                  <c:v>AGEO2real2_AA1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3573,7 +3588,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_P_AA_p2</c:v>
+                  <c:v>AGEO2real2_AA2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3868,7 +3883,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_P_AA_p3</c:v>
+                  <c:v>AGEO2real2_AA3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4496,7 +4511,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real1_P_AA</c:v>
+                  <c:v>AGEO2real1_AA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4791,7 +4806,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_P_AA_p0</c:v>
+                  <c:v>AGEO2real2_AA0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5092,7 +5107,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_P_AA_p1</c:v>
+                  <c:v>AGEO2real2_AA1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5393,7 +5408,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_P_AA_p2</c:v>
+                  <c:v>AGEO2real2_AA2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5688,7 +5703,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_P_AA_p3</c:v>
+                  <c:v>AGEO2real2_AA3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6314,7 +6329,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real1_P_AA</c:v>
+                  <c:v>AGEO2real1_AA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6609,7 +6624,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_P_AA_p0</c:v>
+                  <c:v>AGEO2real2_AA0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6910,7 +6925,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_P_AA_p1</c:v>
+                  <c:v>AGEO2real2_AA1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7211,7 +7226,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_P_AA_p2</c:v>
+                  <c:v>AGEO2real2_AA2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7506,7 +7521,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_P_AA_p3</c:v>
+                  <c:v>AGEO2real2_AA3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8134,7 +8149,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real1_P_AA</c:v>
+                  <c:v>AGEO2real1_AA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8429,7 +8444,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_P_AA_p0</c:v>
+                  <c:v>AGEO2real2_AA0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8730,7 +8745,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_P_AA_p1</c:v>
+                  <c:v>AGEO2real2_AA1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9031,7 +9046,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_P_AA_p2</c:v>
+                  <c:v>AGEO2real2_AA2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9326,7 +9341,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_P_AA_p3</c:v>
+                  <c:v>AGEO2real2_AA3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9954,7 +9969,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real1_P_AA</c:v>
+                  <c:v>AGEO2real1_AA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10249,7 +10264,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_P_AA_p0</c:v>
+                  <c:v>AGEO2real2_AA0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10550,7 +10565,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_P_AA_p1</c:v>
+                  <c:v>AGEO2real2_AA1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10851,7 +10866,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_P_AA_p2</c:v>
+                  <c:v>AGEO2real2_AA2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11146,7 +11161,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_P_AA_p3</c:v>
+                  <c:v>AGEO2real2_AA3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -17011,8 +17026,8 @@
   <sheetPr/>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B40"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -17840,24 +17855,24 @@
         <v>8</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B62" s="1">
         <v>100001</v>
@@ -17877,7 +17892,7 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B63" s="1">
         <v>0.328657549171446</v>
@@ -17897,7 +17912,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B64" s="1">
         <v>0.136357059115682</v>
@@ -17917,7 +17932,7 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B65" s="1">
         <v>0.508031409164595</v>
@@ -17937,7 +17952,7 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B66" s="1">
         <v>0.325371923054655</v>
@@ -17957,7 +17972,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B67" s="1">
         <v>0.0896178880580877</v>
@@ -17987,8 +18002,8 @@
   <sheetPr/>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -18803,7 +18818,7 @@
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:1">
@@ -18816,24 +18831,24 @@
         <v>8</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B62" s="1">
         <v>100002</v>
@@ -18853,7 +18868,7 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B63" s="1">
         <v>5.12138105726734</v>
@@ -18873,7 +18888,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B64" s="1">
         <v>1.0949645553402</v>
@@ -18893,7 +18908,7 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B65" s="1">
         <v>10.1331448641023</v>
@@ -18913,7 +18928,7 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B66" s="1">
         <v>4.96266706666396</v>
@@ -18933,7 +18948,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B67">
         <v>1.78084791497261</v>
@@ -18963,8 +18978,8 @@
   <sheetPr/>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61:B67"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -19779,7 +19794,7 @@
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:1">
@@ -19792,24 +19807,24 @@
         <v>8</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B62" s="1">
         <v>100002</v>
@@ -19829,7 +19844,7 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B63" s="2">
         <v>0.000103143781080585</v>
@@ -19849,7 +19864,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B64" s="2">
         <v>2.833546511044e-6</v>
@@ -19869,7 +19884,7 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B65" s="2">
         <v>0.000567206720412131</v>
@@ -19889,7 +19904,7 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B66" s="2">
         <v>6.88266197531242e-5</v>
@@ -19909,7 +19924,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B67">
         <v>0.000113973591180096</v>
@@ -19939,8 +19954,8 @@
   <sheetPr/>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -20755,7 +20770,7 @@
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:1">
@@ -20768,24 +20783,24 @@
         <v>8</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B62" s="1">
         <v>100001</v>
@@ -20805,7 +20820,7 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B63" s="2">
         <v>721.259986832247</v>
@@ -20825,7 +20840,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B64" s="2">
         <v>439.400943534312</v>
@@ -20845,7 +20860,7 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B65" s="2">
         <v>1108.33360772425</v>
@@ -20865,7 +20880,7 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B66" s="2">
         <v>698.893777662139</v>
@@ -20885,7 +20900,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B67">
         <v>163.780347832958</v>
@@ -20915,8 +20930,8 @@
   <sheetPr/>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -21731,7 +21746,7 @@
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:1">
@@ -21744,24 +21759,24 @@
         <v>8</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B62" s="1">
         <v>100006</v>
@@ -21781,7 +21796,7 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B63" s="2">
         <v>0.220396277209189</v>
@@ -21801,7 +21816,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B64" s="2">
         <v>0.0787083589120669</v>
@@ -21821,7 +21836,7 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B65" s="2">
         <v>0.51331876173057</v>
@@ -21841,7 +21856,7 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B66" s="2">
         <v>0.205156591852382</v>
@@ -21861,7 +21876,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B67">
         <v>0.0984998607808534</v>
@@ -21891,8 +21906,8 @@
   <sheetPr/>
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -22707,7 +22722,7 @@
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:1">
@@ -22720,24 +22735,24 @@
         <v>8</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B62" s="1">
         <v>100002</v>
@@ -22757,7 +22772,7 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B63" s="2">
         <v>2.45062962711605e-5</v>
@@ -22777,7 +22792,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B64" s="2">
         <v>2.06481104257097e-6</v>
@@ -22797,7 +22812,7 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B65" s="2">
         <v>9.19051194382575e-5</v>
@@ -22817,7 +22832,7 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B66" s="2">
         <v>1.47957266325702e-5</v>
@@ -22837,7 +22852,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B67" s="2">
         <v>2.27227121460466e-5</v>
@@ -22857,7 +22872,7 @@
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Execucoes Gerais/novo_final_comparativo_todos5AA.xlsx
+++ b/Execucoes Gerais/novo_final_comparativo_todos5AA.xlsx
@@ -24,19 +24,19 @@
     <t>NFE</t>
   </si>
   <si>
-    <t>AGEO2real1_AA</t>
+    <t>A-GEO2real1_AA</t>
   </si>
   <si>
-    <t>AGEO2real2_AA0</t>
+    <t>A-GEO2real2_AA0</t>
   </si>
   <si>
-    <t>AGEO2real2_AA1</t>
+    <t>A-GEO2real2_AA1</t>
   </si>
   <si>
-    <t>AGEO2real2_AA2</t>
+    <t>A-GEO2real2_AA2</t>
   </si>
   <si>
-    <t>AGEO2real2_AA3</t>
+    <t>A-GEO2real2_AA3</t>
   </si>
   <si>
     <t>============================================================================</t>
@@ -104,10 +104,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -126,21 +126,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -149,11 +134,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -174,15 +173,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,6 +194,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
@@ -203,42 +209,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -255,10 +226,39 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -268,6 +268,84 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -283,43 +361,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,31 +379,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,49 +391,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,7 +409,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,13 +421,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,30 +462,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -513,17 +489,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,15 +515,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -562,147 +523,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -870,7 +870,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real1_AA</c:v>
+                  <c:v>A-GEO2real1_AA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1165,7 +1165,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_AA0</c:v>
+                  <c:v>A-GEO2real2_AA0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1466,7 +1466,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_AA1</c:v>
+                  <c:v>A-GEO2real2_AA1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1767,7 +1767,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_AA2</c:v>
+                  <c:v>A-GEO2real2_AA2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2062,7 +2062,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_AA3</c:v>
+                  <c:v>A-GEO2real2_AA3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2691,7 +2691,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real1_AA</c:v>
+                  <c:v>A-GEO2real1_AA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2986,7 +2986,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_AA0</c:v>
+                  <c:v>A-GEO2real2_AA0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3287,7 +3287,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_AA1</c:v>
+                  <c:v>A-GEO2real2_AA1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3588,7 +3588,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_AA2</c:v>
+                  <c:v>A-GEO2real2_AA2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3883,7 +3883,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_AA3</c:v>
+                  <c:v>A-GEO2real2_AA3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4511,7 +4511,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real1_AA</c:v>
+                  <c:v>A-GEO2real1_AA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4806,7 +4806,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_AA0</c:v>
+                  <c:v>A-GEO2real2_AA0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5107,7 +5107,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_AA1</c:v>
+                  <c:v>A-GEO2real2_AA1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5408,7 +5408,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_AA2</c:v>
+                  <c:v>A-GEO2real2_AA2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5703,7 +5703,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_AA3</c:v>
+                  <c:v>A-GEO2real2_AA3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6329,7 +6329,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real1_AA</c:v>
+                  <c:v>A-GEO2real1_AA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6624,7 +6624,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_AA0</c:v>
+                  <c:v>A-GEO2real2_AA0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6925,7 +6925,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_AA1</c:v>
+                  <c:v>A-GEO2real2_AA1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7226,7 +7226,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_AA2</c:v>
+                  <c:v>A-GEO2real2_AA2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7521,7 +7521,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_AA3</c:v>
+                  <c:v>A-GEO2real2_AA3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8149,7 +8149,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real1_AA</c:v>
+                  <c:v>A-GEO2real1_AA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8444,7 +8444,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_AA0</c:v>
+                  <c:v>A-GEO2real2_AA0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8745,7 +8745,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_AA1</c:v>
+                  <c:v>A-GEO2real2_AA1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9046,7 +9046,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_AA2</c:v>
+                  <c:v>A-GEO2real2_AA2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9341,7 +9341,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_AA3</c:v>
+                  <c:v>A-GEO2real2_AA3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9969,7 +9969,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real1_AA</c:v>
+                  <c:v>A-GEO2real1_AA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10264,7 +10264,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_AA0</c:v>
+                  <c:v>A-GEO2real2_AA0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10565,7 +10565,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_AA1</c:v>
+                  <c:v>A-GEO2real2_AA1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10866,7 +10866,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_AA2</c:v>
+                  <c:v>A-GEO2real2_AA2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11161,7 +11161,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEO2real2_AA3</c:v>
+                  <c:v>A-GEO2real2_AA3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -17026,8 +17026,8 @@
   <sheetPr/>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F1"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -18002,7 +18002,7 @@
   <sheetPr/>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
@@ -18978,7 +18978,7 @@
   <sheetPr/>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
@@ -19954,7 +19954,7 @@
   <sheetPr/>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
@@ -20930,7 +20930,7 @@
   <sheetPr/>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
@@ -21906,7 +21906,7 @@
   <sheetPr/>
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>

--- a/Execucoes Gerais/novo_final_comparativo_todos5AA.xlsx
+++ b/Execucoes Gerais/novo_final_comparativo_todos5AA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27795" windowHeight="12540" activeTab="5"/>
+    <workbookView windowWidth="19485" windowHeight="7860" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="GRI" sheetId="1" r:id="rId1"/>
@@ -104,10 +104,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -126,26 +126,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -156,9 +140,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,7 +165,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,7 +187,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,38 +239,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -241,22 +246,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,31 +271,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,25 +301,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,31 +379,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,31 +409,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,37 +445,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,6 +462,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -489,10 +513,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -515,50 +556,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,142 +567,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2385,7 +2385,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT" altLang="en-US"/>
-                  <a:t>NFE</a:t>
+                  <a:t>Número de avaliações da função objetivo</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" altLang="en-US"/>
               </a:p>
@@ -2395,8 +2395,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.521536243298832"/>
-              <c:y val="0.916674844831117"/>
+              <c:x val="0.236882716049383"/>
+              <c:y val="0.913202622608895"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4206,7 +4206,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT" altLang="en-US"/>
-                  <a:t>NFE</a:t>
+                  <a:t>Número de avaliações da função objetivo</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" altLang="en-US"/>
               </a:p>
@@ -4216,8 +4216,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.521536243298832"/>
-              <c:y val="0.916674844831117"/>
+              <c:x val="0.250771604938272"/>
+              <c:y val="0.923619289275561"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -6026,7 +6026,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT" altLang="en-US"/>
-                  <a:t>NFE</a:t>
+                  <a:t>Número de avaliações da função objetivo</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" altLang="en-US"/>
               </a:p>
@@ -6036,8 +6036,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.521536243298832"/>
-              <c:y val="0.916674844831117"/>
+              <c:x val="0.248456790123457"/>
+              <c:y val="0.920147067053339"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -7844,7 +7844,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT" altLang="en-US"/>
-                  <a:t>NFE</a:t>
+                  <a:t>Número de avaliações da função objetivo</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" altLang="en-US"/>
               </a:p>
@@ -7854,8 +7854,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.521536243298832"/>
-              <c:y val="0.916674844831117"/>
+              <c:x val="0.253086419753086"/>
+              <c:y val="0.924537037037037"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -9664,7 +9664,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT" altLang="en-US"/>
-                  <a:t>NFE</a:t>
+                  <a:t>Número de avaliações da função objetivo</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" altLang="en-US"/>
               </a:p>
@@ -9674,7 +9674,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.521536243298832"/>
+              <c:x val="0.248456790123457"/>
               <c:y val="0.916674844831117"/>
             </c:manualLayout>
           </c:layout>
@@ -11484,7 +11484,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT" altLang="en-US"/>
-                  <a:t>NFE</a:t>
+                  <a:t>Número de avaliações da função objetivo</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" altLang="en-US"/>
               </a:p>
@@ -11494,7 +11494,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.521536243298832"/>
+              <c:x val="0.260956790123457"/>
               <c:y val="0.916674844831117"/>
             </c:manualLayout>
           </c:layout>
@@ -17026,7 +17026,7 @@
   <sheetPr/>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -18002,7 +18002,7 @@
   <sheetPr/>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
@@ -18978,7 +18978,7 @@
   <sheetPr/>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
@@ -19954,7 +19954,7 @@
   <sheetPr/>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
@@ -20930,7 +20930,7 @@
   <sheetPr/>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
@@ -21906,7 +21906,7 @@
   <sheetPr/>
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
